--- a/data_features.xlsx
+++ b/data_features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocument\Material_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A95DA-504A-4DC2-9A8D-CFBBA369F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFF681-3640-4901-B8BB-D1CB3044C2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,54 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Light aggregate (g)</t>
-  </si>
-  <si>
-    <t>Tcuring (°C)</t>
-  </si>
-  <si>
-    <t>Fly ash (g)</t>
-  </si>
-  <si>
-    <t>NaOH (g)</t>
-  </si>
-  <si>
-    <t>WG (g)</t>
-  </si>
-  <si>
-    <t>CaO (%)</t>
-  </si>
-  <si>
-    <t>Na2O (%)</t>
-  </si>
-  <si>
-    <t>SiO2 (%)</t>
-  </si>
-  <si>
-    <t>Molarity</t>
-  </si>
-  <si>
-    <t>Added water (g)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -95,19 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,44 +285,44 @@
     <tabColor rgb="FFC9DAF8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>1</v>
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B1" s="2">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="D1" s="2">
+        <v>52.3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2268</v>
+      </c>
+      <c r="F1" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1">
+        <v>315</v>
+      </c>
+      <c r="H1" s="1">
+        <v>315</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -385,13 +342,13 @@
         <v>2268</v>
       </c>
       <c r="F2" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -414,10 +371,10 @@
         <v>52.3</v>
       </c>
       <c r="E3" s="1">
-        <v>2268</v>
+        <v>1890</v>
       </c>
       <c r="F3" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>210</v>
@@ -449,13 +406,13 @@
         <v>1890</v>
       </c>
       <c r="F4" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H4" s="1">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -484,10 +441,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="H5" s="1">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -510,10 +467,10 @@
         <v>52.3</v>
       </c>
       <c r="E6" s="1">
-        <v>1890</v>
+        <v>1512</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>210</v>
@@ -542,7 +499,7 @@
         <v>52.3</v>
       </c>
       <c r="E7" s="1">
-        <v>1512</v>
+        <v>2268</v>
       </c>
       <c r="F7" s="1">
         <v>12</v>
@@ -554,7 +511,7 @@
         <v>420</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="J7" s="1">
         <v>80</v>
@@ -574,7 +531,7 @@
         <v>52.3</v>
       </c>
       <c r="E8" s="1">
-        <v>2268</v>
+        <v>1890</v>
       </c>
       <c r="F8" s="1">
         <v>12</v>
@@ -609,7 +566,7 @@
         <v>1890</v>
       </c>
       <c r="F9" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
         <v>210</v>
@@ -641,16 +598,16 @@
         <v>1890</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H10" s="1">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="I10" s="1">
-        <v>37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>80</v>
@@ -673,7 +630,7 @@
         <v>1890</v>
       </c>
       <c r="F11" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <v>315</v>
@@ -682,7 +639,7 @@
         <v>315</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="J11" s="1">
         <v>80</v>
@@ -708,13 +665,13 @@
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="I12" s="1">
-        <v>37.799999999999997</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="J12" s="1">
         <v>80</v>
@@ -737,16 +694,16 @@
         <v>1890</v>
       </c>
       <c r="F13" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H13" s="1">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="I13" s="1">
-        <v>75.599999999999994</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="J13" s="1">
         <v>80</v>
@@ -772,13 +729,13 @@
         <v>12</v>
       </c>
       <c r="G14" s="1">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="H14" s="1">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="I14" s="1">
-        <v>37.799999999999997</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="J14" s="1">
         <v>80</v>
@@ -801,16 +758,16 @@
         <v>1890</v>
       </c>
       <c r="F15" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H15" s="1">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="I15" s="1">
-        <v>75.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>80</v>
@@ -833,7 +790,7 @@
         <v>1890</v>
       </c>
       <c r="F16" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
         <v>315</v>
@@ -842,7 +799,7 @@
         <v>315</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="J16" s="1">
         <v>80</v>
@@ -862,10 +819,10 @@
         <v>52.3</v>
       </c>
       <c r="E17" s="1">
-        <v>1890</v>
+        <v>1512</v>
       </c>
       <c r="F17" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1">
         <v>315</v>
@@ -874,13 +831,13 @@
         <v>315</v>
       </c>
       <c r="I17" s="1">
-        <v>37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1260</v>
       </c>
@@ -897,7 +854,7 @@
         <v>1512</v>
       </c>
       <c r="F18" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
         <v>315</v>
@@ -926,19 +883,19 @@
         <v>52.3</v>
       </c>
       <c r="E19" s="1">
-        <v>1512</v>
+        <v>1890</v>
       </c>
       <c r="F19" s="1">
         <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="H19" s="1">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>113.4</v>
       </c>
       <c r="J19" s="1">
         <v>80</v>
@@ -961,7 +918,7 @@
         <v>1890</v>
       </c>
       <c r="F20" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1">
         <v>210</v>
@@ -993,16 +950,16 @@
         <v>1890</v>
       </c>
       <c r="F21" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H21" s="1">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="I21" s="1">
-        <v>113.4</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="J21" s="1">
         <v>80</v>
@@ -1025,7 +982,7 @@
         <v>1890</v>
       </c>
       <c r="F22" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G22" s="1">
         <v>315</v>
@@ -1057,13 +1014,13 @@
         <v>1890</v>
       </c>
       <c r="F23" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1">
-        <v>315</v>
+        <v>210</v>
       </c>
       <c r="H23" s="1">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="I23" s="1">
         <v>75.599999999999994</v>
@@ -1092,13 +1049,13 @@
         <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H24" s="1">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="I24" s="1">
-        <v>75.599999999999994</v>
+        <v>126</v>
       </c>
       <c r="J24" s="1">
         <v>80</v>
@@ -1106,7 +1063,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>1260</v>
+        <v>330</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
@@ -1118,22 +1075,22 @@
         <v>52.3</v>
       </c>
       <c r="E25" s="1">
-        <v>1890</v>
+        <v>500</v>
       </c>
       <c r="F25" s="1">
         <v>8</v>
       </c>
       <c r="G25" s="1">
-        <v>315</v>
+        <v>56.67</v>
       </c>
       <c r="H25" s="1">
-        <v>315</v>
+        <v>113.33</v>
       </c>
       <c r="I25" s="1">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -1153,7 +1110,7 @@
         <v>500</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1">
         <v>56.67</v>
@@ -1185,7 +1142,7 @@
         <v>500</v>
       </c>
       <c r="F27" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
         <v>56.67</v>
@@ -1217,7 +1174,7 @@
         <v>500</v>
       </c>
       <c r="F28" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G28" s="1">
         <v>56.67</v>
@@ -1229,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1206,7 @@
         <v>500</v>
       </c>
       <c r="F29" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1">
         <v>56.67</v>
@@ -1281,7 +1238,7 @@
         <v>500</v>
       </c>
       <c r="F30" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1">
         <v>56.67</v>
@@ -1313,7 +1270,7 @@
         <v>500</v>
       </c>
       <c r="F31" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1">
         <v>56.67</v>
@@ -1325,39 +1282,39 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>330</v>
-      </c>
-      <c r="B32" s="2">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D32" s="2">
-        <v>52.3</v>
+        <v>630</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15.85</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D32" s="1">
+        <v>40.18</v>
       </c>
       <c r="E32" s="1">
-        <v>500</v>
+        <v>945</v>
       </c>
       <c r="F32" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>56.67</v>
+        <v>105</v>
       </c>
       <c r="H32" s="1">
-        <v>113.33</v>
+        <v>210</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -1374,10 +1331,10 @@
         <v>40.18</v>
       </c>
       <c r="E33" s="1">
-        <v>945</v>
+        <v>756</v>
       </c>
       <c r="F33" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33" s="1">
         <v>105</v>
@@ -1406,10 +1363,10 @@
         <v>40.18</v>
       </c>
       <c r="E34" s="1">
-        <v>756</v>
+        <v>1134</v>
       </c>
       <c r="F34" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1">
         <v>105</v>
@@ -1438,16 +1395,16 @@
         <v>40.18</v>
       </c>
       <c r="E35" s="1">
-        <v>1134</v>
+        <v>945</v>
       </c>
       <c r="F35" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1">
-        <v>105</v>
+        <v>157.5</v>
       </c>
       <c r="H35" s="1">
-        <v>210</v>
+        <v>157.5</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -1470,7 +1427,7 @@
         <v>40.18</v>
       </c>
       <c r="E36" s="1">
-        <v>945</v>
+        <v>1134</v>
       </c>
       <c r="F36" s="1">
         <v>12</v>
@@ -1502,10 +1459,10 @@
         <v>40.18</v>
       </c>
       <c r="E37" s="1">
-        <v>1134</v>
+        <v>756</v>
       </c>
       <c r="F37" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1">
         <v>157.5</v>
@@ -1534,10 +1491,10 @@
         <v>40.18</v>
       </c>
       <c r="E38" s="1">
-        <v>756</v>
+        <v>945</v>
       </c>
       <c r="F38" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38" s="1">
         <v>157.5</v>
@@ -1569,7 +1526,7 @@
         <v>945</v>
       </c>
       <c r="F39" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G39" s="1">
         <v>157.5</v>
@@ -1578,7 +1535,7 @@
         <v>157.5</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J39" s="1">
         <v>80</v>
@@ -1601,7 +1558,7 @@
         <v>945</v>
       </c>
       <c r="F40" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1">
         <v>157.5</v>
@@ -1633,7 +1590,7 @@
         <v>945</v>
       </c>
       <c r="F41" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
         <v>157.5</v>
@@ -1642,7 +1599,7 @@
         <v>157.5</v>
       </c>
       <c r="I41" s="1">
-        <v>18.899999999999999</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="J41" s="1">
         <v>80</v>
@@ -1665,7 +1622,7 @@
         <v>945</v>
       </c>
       <c r="F42" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
         <v>157.5</v>
@@ -1706,7 +1663,7 @@
         <v>157.5</v>
       </c>
       <c r="I43" s="1">
-        <v>37.799999999999997</v>
+        <v>63</v>
       </c>
       <c r="J43" s="1">
         <v>80</v>
@@ -1729,7 +1686,7 @@
         <v>945</v>
       </c>
       <c r="F44" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
         <v>157.5</v>
@@ -1738,7 +1695,7 @@
         <v>157.5</v>
       </c>
       <c r="I44" s="1">
-        <v>63</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J44" s="1">
         <v>80</v>
@@ -1761,16 +1718,16 @@
         <v>945</v>
       </c>
       <c r="F45" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G45" s="1">
-        <v>157.5</v>
+        <v>105</v>
       </c>
       <c r="H45" s="1">
-        <v>157.5</v>
+        <v>210</v>
       </c>
       <c r="I45" s="1">
-        <v>18.899999999999999</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
         <v>80</v>
@@ -1793,7 +1750,7 @@
         <v>945</v>
       </c>
       <c r="F46" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1">
         <v>105</v>
@@ -1828,13 +1785,13 @@
         <v>12</v>
       </c>
       <c r="G47" s="1">
-        <v>105</v>
+        <v>157.5</v>
       </c>
       <c r="H47" s="1">
-        <v>210</v>
+        <v>157.5</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J47" s="1">
         <v>80</v>
@@ -1857,7 +1814,7 @@
         <v>945</v>
       </c>
       <c r="F48" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1">
         <v>157.5</v>
@@ -1886,19 +1843,19 @@
         <v>40.18</v>
       </c>
       <c r="E49" s="1">
-        <v>945</v>
+        <v>756</v>
       </c>
       <c r="F49" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1">
-        <v>157.5</v>
+        <v>105</v>
       </c>
       <c r="H49" s="1">
-        <v>157.5</v>
+        <v>210</v>
       </c>
       <c r="I49" s="1">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
         <v>80</v>
@@ -1921,7 +1878,7 @@
         <v>756</v>
       </c>
       <c r="F50" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G50" s="1">
         <v>105</v>
@@ -1950,10 +1907,10 @@
         <v>40.18</v>
       </c>
       <c r="E51" s="1">
-        <v>756</v>
+        <v>1134</v>
       </c>
       <c r="F51" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G51" s="1">
         <v>105</v>
@@ -1985,7 +1942,7 @@
         <v>1134</v>
       </c>
       <c r="F52" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1">
         <v>105</v>
@@ -1997,38 +1954,6 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>630</v>
-      </c>
-      <c r="B53" s="1">
-        <v>15.85</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="D53" s="1">
-        <v>40.18</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1134</v>
-      </c>
-      <c r="F53" s="1">
-        <v>16</v>
-      </c>
-      <c r="G53" s="1">
-        <v>105</v>
-      </c>
-      <c r="H53" s="1">
-        <v>210</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
         <v>80</v>
       </c>
     </row>
